--- a/gamma_cross_sections/io/inputs/gammaEnergies.xlsx
+++ b/gamma_cross_sections/io/inputs/gammaEnergies.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrindavidson/Desktop/uchicago/academics/phys_21101/labs/gamma_cross_sections/io/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrindavidson/Desktop/uchicago/academics/phys_21101/labs/phys21101/gamma_cross_sections/io/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2AE8DC-1E63-C443-90A2-AA5403C2BF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910BCB40-BC0E-2C47-86E0-061C7157C773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{82F59CDD-3AD1-ED41-9A89-569E6757C999}"/>
+    <workbookView xWindow="2640" yWindow="1440" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{82F59CDD-3AD1-ED41-9A89-569E6757C999}"/>
   </bookViews>
   <sheets>
     <sheet name="137cs" sheetId="1" r:id="rId1"/>
     <sheet name="22na" sheetId="2" r:id="rId2"/>
     <sheet name="133ba" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>x</t>
   </si>
@@ -50,16 +50,10 @@
     <t>dt</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>g_32</t>
   </si>
   <si>
     <t>dg_32</t>
-  </si>
-  <si>
-    <t>db</t>
   </si>
   <si>
     <t>n_32</t>
@@ -119,9 +113,6 @@
     <t>b_662</t>
   </si>
   <si>
-    <t>Note: Need to go back into .spu for bg_100821 and get the background at the ROIs for 22Na.</t>
-  </si>
-  <si>
     <t>r_32</t>
   </si>
   <si>
@@ -132,6 +123,99 @@
   </si>
   <si>
     <t>r_662</t>
+  </si>
+  <si>
+    <t>g_31</t>
+  </si>
+  <si>
+    <t>dg_31</t>
+  </si>
+  <si>
+    <t>n_31</t>
+  </si>
+  <si>
+    <t>dn_31</t>
+  </si>
+  <si>
+    <t>g_81</t>
+  </si>
+  <si>
+    <t>dg_81</t>
+  </si>
+  <si>
+    <t>n_81</t>
+  </si>
+  <si>
+    <t>dn_81</t>
+  </si>
+  <si>
+    <t>b_31</t>
+  </si>
+  <si>
+    <t>db_31</t>
+  </si>
+  <si>
+    <t>r_31</t>
+  </si>
+  <si>
+    <t>dr_31</t>
+  </si>
+  <si>
+    <t>b_81</t>
+  </si>
+  <si>
+    <t>db_81</t>
+  </si>
+  <si>
+    <t>r_81</t>
+  </si>
+  <si>
+    <t>dr_81</t>
+  </si>
+  <si>
+    <t>b_356</t>
+  </si>
+  <si>
+    <t>db_356</t>
+  </si>
+  <si>
+    <t>g_356</t>
+  </si>
+  <si>
+    <t>dg_356</t>
+  </si>
+  <si>
+    <t>n_356</t>
+  </si>
+  <si>
+    <t>dn_356</t>
+  </si>
+  <si>
+    <t>r_356</t>
+  </si>
+  <si>
+    <t>dr_356</t>
+  </si>
+  <si>
+    <t>db_511</t>
+  </si>
+  <si>
+    <t>r_511</t>
+  </si>
+  <si>
+    <t>dr_511</t>
+  </si>
+  <si>
+    <t>b_1275</t>
+  </si>
+  <si>
+    <t>db_1275</t>
+  </si>
+  <si>
+    <t>r_1275</t>
+  </si>
+  <si>
+    <t>dr_1275</t>
   </si>
 </sst>
 </file>
@@ -202,6 +286,6938 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>137Ca (32 keV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'137cs'!$M$2:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.2872605096214102</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.28099292277798293</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26351930260848233</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2540807598035224</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.20821512346550522</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1781678609127047</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.13027664769289712</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.10595548812831729</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.5093886012257633E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'137cs'!$M$2:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.2872605096214102</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.28099292277798293</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26351930260848233</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2540807598035224</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.20821512346550522</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1781678609127047</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.13027664769289712</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.10595548812831729</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.5093886012257633E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'137cs'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'137cs'!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.438202247191011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.887640449438202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.398876404494382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.623595505617978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1573033707865168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1685393258426968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4775280898876408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3370786516853932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4775280898876404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F948-0140-ABD7-B81D57CAFB9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1513963119"/>
+        <c:axId val="1512525631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1513963119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512525631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1512525631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1513963119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>137Cs (662 keV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'137cs'!$U$2:$U$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.46901403411661108</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46496980123236054</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.46226309291024037</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.46450373552007151</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.45272075691457947</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.42676981679125958</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39132496224631225</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.32991604661654178</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.22361613148472315</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'137cs'!$U$2:$U$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.46901403411661108</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46496980123236054</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.46226309291024037</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.46450373552007151</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.45272075691457947</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.42676981679125958</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39132496224631225</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.32991604661654178</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.22361613148472315</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'137cs'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'137cs'!$T$2:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>33.752808988764045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.264044943820224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.938202247191015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.207865168539328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.797752808988765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.764044943820224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.792134831460675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.438202247191011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3370786516853936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA0C-D048-ABC8-530671BE6C90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1512667359"/>
+        <c:axId val="1512551503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1512667359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512551503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1512551503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512667359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>22Na (32 keV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'22na'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'22na'!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>69.904494382022477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.32022471910112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.415730337078656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.617977528089881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.022471910112358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.348314606741575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.258426966292134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.044943820224717</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.578651685393258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E610-A740-A48F-234069990BED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1342284575"/>
+        <c:axId val="1431962335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1342284575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1431962335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1431962335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342284575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>22Na (662 keV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'22na'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'22na'!$T$2:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.179775280898877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.106741573033707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.05056179775281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.595505617977528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.629213483146067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.51685393258427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5280898876404496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6235955056179776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3202247191011232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33DF-4C49-A6FE-025680C7F11A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1505893855"/>
+        <c:axId val="1506301375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1505893855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1506301375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1506301375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505893855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>133Ba (32 keV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'133ba'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'133ba'!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>405.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>359.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318.06666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260.31666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.48333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.616666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD51-ED4A-88F9-E4FB2D9F2D2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1441247711"/>
+        <c:axId val="1441249359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1441247711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1441249359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1441249359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1441247711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>133Ba (81 keV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'133ba'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'133ba'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>147.61666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.08333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.016666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.883333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFE7-F54F-9CA0-19DFDACC5AC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1462374415"/>
+        <c:axId val="1462461791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1462374415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1462461791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1462461791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1462374415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>133Ba (356 keV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'133ba'!$AC$2:$AC$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>2.3889714249162637</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4310610880914578</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3727520874922474</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3294746221255713</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2676215848800445</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.1155982876629778</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.8126332615027076</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3709062959995837</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.75614740607445052</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.50170000603126841</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'133ba'!$AC$2:$AC$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>2.3889714249162637</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4310610880914578</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3727520874922474</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3294746221255713</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2676215848800445</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.1155982876629778</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.8126332615027076</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3709062959995837</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.75614740607445052</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.50170000603126841</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'133ba'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'133ba'!$AB$2:$AB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>116.81666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.28333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.86666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.71666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.633333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BB3-614F-BB4E-AFAF2ED7F7B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1505962463"/>
+        <c:axId val="1505964143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1505962463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505964143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1505964143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505962463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63732683-51B9-7A47-8F78-F0EE16FCDFBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E756FF17-2537-084C-AEAE-9E107DEE822F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B213889D-B8EB-8942-8941-60F0E31F8586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E5F65C-A281-4347-8D83-CB35CE678A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7614E18F-44BB-8341-9FFE-04ABCAE24849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A425DF95-A4D2-F04B-9D2A-EF440B344F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C95999F-28C7-3C45-82FB-7C521FB23B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,15 +7519,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A70B09-B204-6641-A76B-FEE281685D1A}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -526,52 +7542,52 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -609,7 +7625,7 @@
         <v>2748</v>
       </c>
       <c r="K2" s="1">
-        <f>SQRT(F2 + H2)</f>
+        <f t="shared" ref="K2:K10" si="0">SQRT(F2 + H2)</f>
         <v>60.066629670724829</v>
       </c>
       <c r="L2" s="1">
@@ -671,60 +7687,60 @@
         <v>430</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G10" si="0">SQRT(F3)</f>
+        <f t="shared" ref="G3:G10" si="1">SQRT(F3)</f>
         <v>20.73644135332772</v>
       </c>
       <c r="H3" s="3">
         <v>3080</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I10" si="1">SQRT(H3)</f>
+        <f t="shared" ref="I3:I10" si="2">SQRT(H3)</f>
         <v>55.497747702046432</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J10" si="2">H3 - F3</f>
+        <f t="shared" ref="J3:J10" si="3">H3 - F3</f>
         <v>2650</v>
       </c>
       <c r="K3" s="1">
-        <f>SQRT(F3 + H3)</f>
+        <f t="shared" si="0"/>
         <v>59.245252974394496</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L10" si="3">J3/D3</f>
+        <f t="shared" ref="L3:L10" si="4">J3/D3</f>
         <v>14.887640449438202</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M10" si="4">L3*SQRT((I3/H3)^2 + (E3/D3)^2)</f>
+        <f t="shared" ref="M3:M10" si="5">L3*SQRT((I3/H3)^2 + (E3/D3)^2)</f>
         <v>0.28099292277798293</v>
       </c>
       <c r="N3" s="1">
         <v>183</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O10" si="5">SQRT(N3)</f>
+        <f t="shared" ref="O3:O10" si="6">SQRT(N3)</f>
         <v>13.527749258468683</v>
       </c>
       <c r="P3" s="1">
         <v>6104</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q10" si="6">SQRT(P3)</f>
+        <f t="shared" ref="Q3:Q10" si="7">SQRT(P3)</f>
         <v>78.128099938498437</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R10" si="7">P3-N3</f>
+        <f t="shared" ref="R3:R10" si="8">P3-N3</f>
         <v>5921</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S10" si="8">SQRT(N3 + P3)</f>
+        <f t="shared" ref="S3:S10" si="9">SQRT(N3 + P3)</f>
         <v>79.290604739779852</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T10" si="9">R3/D3</f>
+        <f t="shared" ref="T3:T10" si="10">R3/D3</f>
         <v>33.264044943820224</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U10" si="10">T3*SQRT((Q3/P3)^2 + (E3/D3)^2)</f>
+        <f t="shared" ref="U3:U10" si="11">T3*SQRT((Q3/P3)^2 + (E3/D3)^2)</f>
         <v>0.46496980123236054</v>
       </c>
     </row>
@@ -748,60 +7764,60 @@
         <v>430</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.73644135332772</v>
       </c>
       <c r="H4" s="1">
         <v>2815</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53.056573579529235</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2385</v>
       </c>
       <c r="K4" s="1">
-        <f>SQRT(F4 + H4)</f>
+        <f t="shared" si="0"/>
         <v>56.964901474504458</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.398876404494382</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26351930260848233</v>
       </c>
       <c r="N4" s="1">
         <v>183</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.527749258468683</v>
       </c>
       <c r="P4" s="1">
         <v>6046</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77.756028705175012</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5863</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>78.924014089502563</v>
       </c>
       <c r="T4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.938202247191015</v>
       </c>
       <c r="U4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.46226309291024037</v>
       </c>
     </row>
@@ -825,60 +7841,60 @@
         <v>430</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.73644135332772</v>
       </c>
       <c r="H5" s="3">
         <v>2677</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.739733281106119</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2247</v>
       </c>
       <c r="K5" s="1">
-        <f>SQRT(F5 + H5)</f>
+        <f t="shared" si="0"/>
         <v>55.740470037487128</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.623595505617978</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2540807598035224</v>
       </c>
       <c r="N5" s="1">
         <v>183</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.527749258468683</v>
       </c>
       <c r="P5" s="3">
         <v>6094</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78.064076245094967</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5911</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79.227520471109031</v>
       </c>
       <c r="T5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.207865168539328</v>
       </c>
       <c r="U5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.46450373552007151</v>
       </c>
     </row>
@@ -902,60 +7918,60 @@
         <v>430</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.73644135332772</v>
       </c>
       <c r="H6" s="3">
         <v>2060</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.387222871640866</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1630</v>
       </c>
       <c r="K6" s="1">
-        <f>SQRT(F6 + H6)</f>
+        <f t="shared" si="0"/>
         <v>49.899899799498598</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1573033707865168</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20821512346550522</v>
       </c>
       <c r="N6" s="1">
         <v>183</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.527749258468683</v>
       </c>
       <c r="P6" s="3">
         <v>5843</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76.439518575145414</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5660</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.627314780301404</v>
       </c>
       <c r="T6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.797752808988765</v>
       </c>
       <c r="U6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.45272075691457947</v>
       </c>
     </row>
@@ -979,60 +7995,60 @@
         <v>430</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.73644135332772</v>
       </c>
       <c r="H7" s="3">
         <v>1706</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.303752856126764</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1276</v>
       </c>
       <c r="K7" s="1">
-        <f>SQRT(F7 + H7)</f>
+        <f t="shared" si="0"/>
         <v>46.216880033165374</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1685393258426968</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1781678609127047</v>
       </c>
       <c r="N7" s="1">
         <v>183</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.527749258468683</v>
       </c>
       <c r="P7" s="3">
         <v>5303</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>72.821700062550036</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5120</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74.06753674856482</v>
       </c>
       <c r="T7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.764044943820224</v>
       </c>
       <c r="U7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42676981679125958</v>
       </c>
     </row>
@@ -1056,60 +8072,60 @@
         <v>430</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.73644135332772</v>
       </c>
       <c r="H8" s="3">
         <v>1227</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.028559776273987</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>797</v>
       </c>
       <c r="K8" s="1">
-        <f>SQRT(F8 + H8)</f>
+        <f t="shared" si="0"/>
         <v>40.70626487409524</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4775280898876408</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13027664769289712</v>
       </c>
       <c r="N8" s="1">
         <v>183</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.527749258468683</v>
       </c>
       <c r="P8" s="3">
         <v>4596</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67.793805026713173</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4413</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69.130311730817468</v>
       </c>
       <c r="T8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.792134831460675</v>
       </c>
       <c r="U8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39132496224631225</v>
       </c>
     </row>
@@ -1133,60 +8149,60 @@
         <v>430</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.73644135332772</v>
       </c>
       <c r="H9" s="3">
         <v>1024</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>594</v>
       </c>
       <c r="K9" s="1">
-        <f>SQRT(F9 + H9)</f>
+        <f t="shared" si="0"/>
         <v>38.131351929875237</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3370786516853932</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10595548812831729</v>
       </c>
       <c r="N9" s="1">
         <v>183</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.527749258468683</v>
       </c>
       <c r="P9" s="3">
         <v>3465</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58.864250611045748</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3282</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60.398675482165999</v>
       </c>
       <c r="T9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.438202247191011</v>
       </c>
       <c r="U9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.32991604661654178</v>
       </c>
     </row>
@@ -1210,81 +8226,82 @@
         <v>430</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.73644135332772</v>
       </c>
       <c r="H10" s="3">
         <v>871</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.512709126747414</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>441</v>
       </c>
       <c r="K10" s="1">
-        <f>SQRT(F10 + H10)</f>
+        <f t="shared" si="0"/>
         <v>36.069377593742864</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4775280898876404</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.5093886012257633E-2</v>
       </c>
       <c r="N10" s="1">
         <v>183</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.527749258468683</v>
       </c>
       <c r="P10" s="3">
         <v>1845</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42.953463189829058</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1662</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.033320996790806</v>
       </c>
       <c r="T10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.3370786516853936</v>
       </c>
       <c r="U10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.22361613148472315</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDCA10C-2437-3845-A1A5-307D2BEC6CAF}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1299,37 +8316,55 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>24</v>
+      <c r="T1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1345,33 +8380,68 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="3">
+        <v>181</v>
+      </c>
       <c r="G2" s="1">
         <f>SQRT(F2)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>13.45362404707371</v>
+      </c>
+      <c r="H2" s="3">
+        <v>12624</v>
+      </c>
       <c r="I2" s="1">
         <f>SQRT(H2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>112.35657524150511</v>
+      </c>
+      <c r="J2" s="1">
+        <f>H2 - F2</f>
+        <v>12443</v>
+      </c>
       <c r="K2" s="1">
-        <f>SQRT(F2 + H2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="1"/>
+        <f t="shared" ref="K2:K10" si="0">SQRT(F2 + H2)</f>
+        <v>113.1591799192624</v>
+      </c>
+      <c r="L2" s="1">
+        <f>J2/D2</f>
+        <v>69.904494382022477</v>
+      </c>
       <c r="M2" s="1">
-        <f>SQRT(L2)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="1"/>
+        <f>L2*SQRT((I2/H2)^2 + (E2/D2)^2)</f>
+        <v>0.73574560599316363</v>
+      </c>
+      <c r="N2" s="1">
+        <v>42</v>
+      </c>
       <c r="O2" s="1">
-        <f>SQRT(F2 + L2)</f>
-        <v>0</v>
+        <f>SQRT(N2)</f>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2210</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>SQRT(P2)</f>
+        <v>47.010637094172637</v>
+      </c>
+      <c r="R2" s="1">
+        <f>P2-N2</f>
+        <v>2168</v>
+      </c>
+      <c r="S2" s="1">
+        <f>SQRT(N2 + P2)</f>
+        <v>47.455242070818692</v>
+      </c>
+      <c r="T2">
+        <f>R2/D2</f>
+        <v>12.179775280898877</v>
+      </c>
+      <c r="U2">
+        <f>T2*SQRT((Q2/P2)^2 + (E2/D2)^2)</f>
+        <v>0.26796899592678486</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1387,33 +8457,68 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="3">
+        <v>181</v>
+      </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G10" si="0">SQRT(F3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
+        <f t="shared" ref="G3:G10" si="1">SQRT(F3)</f>
+        <v>13.45362404707371</v>
+      </c>
+      <c r="H3" s="3">
+        <v>12342</v>
+      </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I10" si="1">SQRT(H3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="1"/>
+        <f t="shared" ref="I3:I10" si="2">SQRT(H3)</f>
+        <v>111.09455432198286</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J10" si="3">H3 - F3</f>
+        <v>12161</v>
+      </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K10" si="2">SQRT(F3 + H3)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="1"/>
+        <f t="shared" si="0"/>
+        <v>111.90621073023605</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L10" si="4">J3/D3</f>
+        <v>68.32022471910112</v>
+      </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M10" si="3">SQRT(L3)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="1"/>
+        <f t="shared" ref="M3:M10" si="5">L3*SQRT((I3/H3)^2 + (E3/D3)^2)</f>
+        <v>0.72492174541840737</v>
+      </c>
+      <c r="N3" s="1">
+        <v>42</v>
+      </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O10" si="4">SQRT(F3 + L3)</f>
-        <v>0</v>
+        <f t="shared" ref="O3:O10" si="6">SQRT(N3)</f>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2197</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q10" si="7">SQRT(P3)</f>
+        <v>46.872166581031863</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R10" si="8">P3-N3</f>
+        <v>2155</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S10" si="9">SQRT(N3 + P3)</f>
+        <v>47.318072657283921</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T10" si="10">R3/D3</f>
+        <v>12.106741573033707</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U10" si="11">T3*SQRT((Q3/P3)^2 + (E3/D3)^2)</f>
+        <v>0.26709782495001289</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1429,33 +8534,68 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3">
+        <v>181</v>
+      </c>
       <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>13.45362404707371</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12359</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>111.17103939425951</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>12178</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1"/>
+        <v>111.98214143335535</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="4"/>
+        <v>68.415730337078656</v>
+      </c>
       <c r="M4" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="1"/>
+        <f t="shared" si="5"/>
+        <v>0.72557572703580198</v>
+      </c>
+      <c r="N4" s="1">
+        <v>42</v>
+      </c>
       <c r="O4" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2187</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>46.765371804359688</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>2145</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>47.212286536451508</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="10"/>
+        <v>12.05056179775281</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="11"/>
+        <v>0.26642618728015516</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1471,33 +8611,68 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3">
+        <v>181</v>
+      </c>
       <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>13.45362404707371</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12217</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>110.53053876644228</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>12036</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>111.34630662936243</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="4"/>
+        <v>67.617977528089881</v>
+      </c>
       <c r="M5" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="1"/>
+        <f t="shared" si="5"/>
+        <v>0.72010710174374504</v>
+      </c>
+      <c r="N5" s="1">
+        <v>42</v>
+      </c>
       <c r="O5" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2106</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>45.891175622335062</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>2064</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>46.346520905025869</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="10"/>
+        <v>11.595505617977528</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="11"/>
+        <v>0.26093636060883546</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1513,33 +8688,68 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="3">
+        <v>181</v>
+      </c>
       <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>13.45362404707371</v>
+      </c>
+      <c r="H6" s="3">
+        <v>11577</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>107.59646834352883</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>11396</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>108.43431191278893</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="4"/>
+        <v>64.022471910112358</v>
+      </c>
       <c r="M6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="1"/>
+        <f t="shared" si="5"/>
+        <v>0.69528473794948942</v>
+      </c>
+      <c r="N6" s="1">
+        <v>42</v>
+      </c>
       <c r="O6" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2112</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>45.956501172304229</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>2070</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>46.411205543489174</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="10"/>
+        <v>11.629213483146067</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="11"/>
+        <v>0.26134610662532776</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1555,33 +8765,68 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="3">
+        <v>181</v>
+      </c>
       <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>13.45362404707371</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10745</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>103.65809182114053</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>10564</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>104.52750834110607</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="4"/>
+        <v>59.348314606741575</v>
+      </c>
       <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="1"/>
+        <f t="shared" si="5"/>
+        <v>0.66254682335223869</v>
+      </c>
+      <c r="N7" s="1">
+        <v>42</v>
+      </c>
       <c r="O7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1914</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>43.749285708454714</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>1872</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>44.226688774991963</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="10"/>
+        <v>10.51685393258427</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="11"/>
+        <v>0.24754353353550859</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1597,33 +8842,68 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="3">
+        <v>181</v>
+      </c>
       <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>13.45362404707371</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9305</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>96.462427918853464</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>9124</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1"/>
+        <v>97.396098484487567</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>51.258426966292134</v>
+      </c>
       <c r="M8" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="1"/>
+        <f t="shared" si="5"/>
+        <v>0.60439483564695695</v>
+      </c>
+      <c r="N8" s="1">
+        <v>42</v>
+      </c>
       <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1738</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>41.689327171351664</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>1696</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>42.190046219457976</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="10"/>
+        <v>9.5280898876404496</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="11"/>
+        <v>0.23473463520696844</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1639,33 +8919,68 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="3">
+        <v>181</v>
+      </c>
       <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>13.45362404707371</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6953</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>83.384650865731871</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>6772</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1"/>
+        <v>84.463009655114703</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>38.044943820224717</v>
+      </c>
       <c r="M9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="1"/>
+        <f t="shared" si="5"/>
+        <v>0.50383986750478893</v>
+      </c>
+      <c r="N9" s="1">
+        <v>42</v>
+      </c>
       <c r="O9" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1399</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>37.403208418530085</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>1357</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>37.960505792204614</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="10"/>
+        <v>7.6235955056179776</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="11"/>
+        <v>0.20827321845889102</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1681,50 +8996,1248 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3">
+        <v>181</v>
+      </c>
       <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>13.45362404707371</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3666</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>60.547502012882411</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>3485</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1"/>
+        <v>62.024188829842828</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>19.578651685393258</v>
+      </c>
       <c r="M10" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="1"/>
+        <f t="shared" si="5"/>
+        <v>0.34155547914712825</v>
+      </c>
+      <c r="N10" s="1">
+        <v>42</v>
+      </c>
       <c r="O10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>27</v>
+        <f t="shared" si="6"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P10" s="3">
+        <v>811</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="7"/>
+        <v>28.478061731796284</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="8"/>
+        <v>769</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="9"/>
+        <v>29.206163733020468</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="10"/>
+        <v>4.3202247191011232</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="11"/>
+        <v>0.15363288241275289</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCF6C97-C150-5640-9F1D-E7D62749746C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>122</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SQRT(F2)</f>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H2" s="3">
+        <v>24464</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SQRT(H2)</f>
+        <v>156.40971836813722</v>
+      </c>
+      <c r="J2" s="1">
+        <f>H2 - F2</f>
+        <v>24342</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SQRT(F2 + H2)</f>
+        <v>156.79923469200989</v>
+      </c>
+      <c r="L2" s="1">
+        <f>J2/D2</f>
+        <v>405.7</v>
+      </c>
+      <c r="M2" s="1">
+        <f>L2*SQRT((I2/H2)^2 + (E2/D2)^2)</f>
+        <v>7.2421048659938352</v>
+      </c>
+      <c r="N2" s="1">
+        <v>358</v>
+      </c>
+      <c r="O2" s="1">
+        <f>SQRT(N2)</f>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P2" s="1">
+        <v>9215</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>SQRT(P2)</f>
+        <v>95.994791525373913</v>
+      </c>
+      <c r="R2" s="1">
+        <f>P2-N2</f>
+        <v>8857</v>
+      </c>
+      <c r="S2" s="1">
+        <f>SQRT(N2 + P2)</f>
+        <v>97.841708897586201</v>
+      </c>
+      <c r="T2">
+        <f>R2/D2</f>
+        <v>147.61666666666667</v>
+      </c>
+      <c r="U2">
+        <f>T2*SQRT((Q2/P2)^2 + (E2/D2)^2)</f>
+        <v>2.9013209860596789</v>
+      </c>
+      <c r="V2" s="1">
+        <v>111</v>
+      </c>
+      <c r="W2" s="1">
+        <f>SQRT(V2)</f>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X2" s="1">
+        <v>7120</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>SQRT(X2)</f>
+        <v>84.380092438915952</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>X2-V2</f>
+        <v>7009</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>SQRT(V2 + X2)</f>
+        <v>85.03528679318957</v>
+      </c>
+      <c r="AB2">
+        <f>Z2/D2</f>
+        <v>116.81666666666666</v>
+      </c>
+      <c r="AC2">
+        <f>AB2*SQRT((Y2/X2)^2 + (E2/D2)^2)</f>
+        <v>2.3889714249162637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>122</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" si="0">SQRT(F3)</f>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H3" s="3">
+        <v>21695</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I11" si="1">SQRT(H3)</f>
+        <v>147.2922265430189</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J11" si="2">H3 - F3</f>
+        <v>21573</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K11" si="3">SQRT(F3 + H3)</f>
+        <v>147.70578864756791</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L11" si="4">J3/D3</f>
+        <v>359.55</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M11" si="5">L3*SQRT((I3/H3)^2 + (E3/D3)^2)</f>
+        <v>6.4706149578239707</v>
+      </c>
+      <c r="N3" s="1">
+        <v>358</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O11" si="6">SQRT(N3)</f>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P3" s="1">
+        <v>8828</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q11" si="7">SQRT(P3)</f>
+        <v>93.95743717237076</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R11" si="8">P3-N3</f>
+        <v>8470</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S11" si="9">SQRT(N3 + P3)</f>
+        <v>95.843622636041886</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T11" si="10">R3/D3</f>
+        <v>141.16666666666666</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U11" si="11">T3*SQRT((Q3/P3)^2 + (E3/D3)^2)</f>
+        <v>2.7915818731090805</v>
+      </c>
+      <c r="V3" s="1">
+        <v>111</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W11" si="12">SQRT(V3)</f>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X3" s="1">
+        <v>7268</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y11" si="13">SQRT(X3)</f>
+        <v>85.252565943788454</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z11" si="14">X3-V3</f>
+        <v>7157</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3:AA11" si="15">SQRT(V3 + X3)</f>
+        <v>85.901105930016996</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB11" si="16">Z3/D3</f>
+        <v>119.28333333333333</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC11" si="17">AB3*SQRT((Y3/X3)^2 + (E3/D3)^2)</f>
+        <v>2.4310610880914578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>122</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19206</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SQRT(H4)</f>
+        <v>138.58571354941316</v>
+      </c>
+      <c r="J4" s="1">
+        <f>H4 - F4</f>
+        <v>19084</v>
+      </c>
+      <c r="K4" s="1">
+        <f>SQRT(F4 + H4)</f>
+        <v>139.02517757586213</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="4"/>
+        <v>318.06666666666666</v>
+      </c>
+      <c r="M4" s="1">
+        <f>L4*SQRT((I4/H4)^2 + (E4/D4)^2)</f>
+        <v>5.7766094296693344</v>
+      </c>
+      <c r="N4" s="1">
+        <v>358</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="6"/>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P4" s="1">
+        <v>8581</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>92.633687176966021</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>8223</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>94.546284961388096</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="10"/>
+        <v>137.05000000000001</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="11"/>
+        <v>2.7214496896757097</v>
+      </c>
+      <c r="V4" s="1">
+        <v>111</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="12"/>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X4" s="1">
+        <v>7063</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="13"/>
+        <v>84.041656337794777</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="14"/>
+        <v>6952</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="15"/>
+        <v>84.699468711438797</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="16"/>
+        <v>115.86666666666666</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="17"/>
+        <v>2.3727520874922474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>122</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H5" s="3">
+        <v>15741</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SQRT(H5)</f>
+        <v>125.4631419979589</v>
+      </c>
+      <c r="J5" s="1">
+        <f>H5 - F5</f>
+        <v>15619</v>
+      </c>
+      <c r="K5" s="1">
+        <f>SQRT(F5 + H5)</f>
+        <v>125.94840213357215</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="4"/>
+        <v>260.31666666666666</v>
+      </c>
+      <c r="M5" s="1">
+        <f>L5*SQRT((I5/H5)^2 + (E5/D5)^2)</f>
+        <v>4.8092131633123181</v>
+      </c>
+      <c r="N5" s="1">
+        <v>358</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="6"/>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P5" s="3">
+        <v>8578</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>92.617492948146676</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>8220</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>94.530418384771792</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="11"/>
+        <v>2.7205974125329164</v>
+      </c>
+      <c r="V5" s="1">
+        <v>111</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="12"/>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X5" s="3">
+        <v>6911</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="13"/>
+        <v>83.132424480463698</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="14"/>
+        <v>6800</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="15"/>
+        <v>83.797374660546495</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="16"/>
+        <v>113.33333333333333</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="17"/>
+        <v>2.3294746221255713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="1">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>122</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10231</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>101.14840582035883</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>10109</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>101.74969287422935</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="4"/>
+        <v>168.48333333333332</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2649267647632989</v>
+      </c>
+      <c r="N6" s="1">
+        <v>358</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="6"/>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P6" s="3">
+        <v>7803</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>88.334591186012744</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>7445</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>90.338253248554679</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="10"/>
+        <v>124.08333333333333</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="11"/>
+        <v>2.5000054764311268</v>
+      </c>
+      <c r="V6" s="1">
+        <v>111</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="12"/>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X6" s="3">
+        <v>6694</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="13"/>
+        <v>81.81686867633104</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="14"/>
+        <v>6583</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="15"/>
+        <v>82.492423894561369</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="16"/>
+        <v>109.71666666666667</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="17"/>
+        <v>2.2676215848800445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="1">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>122</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5194</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>72.069410986909006</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>5072</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>72.910904534232742</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="4"/>
+        <v>84.533333333333331</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8332386383585564</v>
+      </c>
+      <c r="N7" s="1">
+        <v>358</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="6"/>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P7" s="3">
+        <v>6565</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>81.024687595818591</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>6207</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>83.204567182336817</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="10"/>
+        <v>103.45</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="11"/>
+        <v>2.1454360354086828</v>
+      </c>
+      <c r="V7" s="1">
+        <v>111</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="12"/>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X7" s="3">
+        <v>6162</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="13"/>
+        <v>78.498407627161455</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="14"/>
+        <v>6051</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="15"/>
+        <v>79.202272694664515</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="16"/>
+        <v>100.85</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="17"/>
+        <v>2.1155982876629778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>16.05</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>122</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2559</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>50.586559479766954</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>2437</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
+        <v>51.778373863998475</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>40.616666666666667</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0502023542601442</v>
+      </c>
+      <c r="N8" s="1">
+        <v>358</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="6"/>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5022</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>70.866070866106298</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>4664</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>73.348483283568996</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="10"/>
+        <v>77.733333333333334</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="11"/>
+        <v>1.6975465646426462</v>
+      </c>
+      <c r="V8" s="1">
+        <v>111</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="12"/>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X8" s="3">
+        <v>5109</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="13"/>
+        <v>71.477269114033732</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="14"/>
+        <v>4998</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="15"/>
+        <v>72.249567472753768</v>
+      </c>
+      <c r="AB8">
+        <f>Z8/D8</f>
+        <v>83.3</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="17"/>
+        <v>1.8126332615027076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1928</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>43.908996800200299</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>1806</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>45.276925690687087</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>30.1</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.84946550466429727</v>
+      </c>
+      <c r="N9" s="1">
+        <v>358</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="6"/>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2939</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>54.212544673719201</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>2581</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>57.419508879822367</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="10"/>
+        <v>43.016666666666666</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="11"/>
+        <v>1.0694029540217065</v>
+      </c>
+      <c r="V9" s="1">
+        <v>111</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="12"/>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X9" s="3">
+        <v>3601</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="13"/>
+        <v>60.00833275470999</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="14"/>
+        <v>3490</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="15"/>
+        <v>60.926184846911269</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="16"/>
+        <v>58.166666666666664</v>
+      </c>
+      <c r="AC9">
+        <f>AB9*SQRT((Y9/X9)^2 + (E9/D9)^2)</f>
+        <v>1.3709062959995837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="1">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>122</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1382</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10" si="18">SQRT(H10)</f>
+        <v>37.17526059088221</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10" si="19">H10 - F10</f>
+        <v>1260</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ref="K10" si="20">SQRT(F10 + H10)</f>
+        <v>38.781438859330635</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10" si="21">J10/D10</f>
+        <v>21</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" ref="M10" si="22">L10*SQRT((I10/H10)^2 + (E10/D10)^2)</f>
+        <v>0.66453197788985707</v>
+      </c>
+      <c r="N10" s="1">
+        <v>358</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ref="O10" si="23">SQRT(N10)</f>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1420</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" ref="Q10" si="24">SQRT(P10)</f>
+        <v>37.682887362833547</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" ref="R10" si="25">P10-N10</f>
+        <v>1062</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" ref="S10" si="26">SQRT(N10 + P10)</f>
+        <v>42.166337284616027</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10" si="27">R10/D10</f>
+        <v>17.7</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10" si="28">T10*SQRT((Q10/P10)^2 + (E10/D10)^2)</f>
+        <v>0.55466364633296494</v>
+      </c>
+      <c r="V10" s="1">
+        <v>111</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" ref="W10" si="29">SQRT(V10)</f>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1631</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" ref="Y10" si="30">SQRT(X10)</f>
+        <v>40.385641012617342</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" ref="Z10" si="31">X10-V10</f>
+        <v>1520</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" ref="AA10" si="32">SQRT(V10 + X10)</f>
+        <v>41.737273509418415</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ref="AB10" si="33">Z10/D10</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" ref="AC10" si="34">AB10*SQRT((Y10/X10)^2 + (E10/D10)^2)</f>
+        <v>0.75614740607445052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>99.95</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SQRT(0.005)</f>
+        <v>7.0710678118654752E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>122</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1124</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>33.526109228480422</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>1002</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
+        <v>35.298725189445584</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="4"/>
+        <v>16.7</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.57060688766010892</v>
+      </c>
+      <c r="N11" s="1">
+        <v>358</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="6"/>
+        <v>18.920887928424502</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1011</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="7"/>
+        <v>31.796226191169293</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="8"/>
+        <v>653</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="10"/>
+        <v>10.883333333333333</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="11"/>
+        <v>0.38737595848298234</v>
+      </c>
+      <c r="V11" s="1">
+        <v>111</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="12"/>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="X11" s="3">
+        <v>929</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="13"/>
+        <v>30.479501308256342</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="14"/>
+        <v>818</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="15"/>
+        <v>32.249030993194197</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="16"/>
+        <v>13.633333333333333</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="17"/>
+        <v>0.50170000603126841</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gamma_cross_sections/io/inputs/gammaEnergies.xlsx
+++ b/gamma_cross_sections/io/inputs/gammaEnergies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrindavidson/Desktop/uchicago/academics/phys_21101/labs/phys21101/gamma_cross_sections/io/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910BCB40-BC0E-2C47-86E0-061C7157C773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85396E9-D4A2-EE42-8892-34DC1B6A7041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1440" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{82F59CDD-3AD1-ED41-9A89-569E6757C999}"/>
   </bookViews>
@@ -9067,8 +9067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCF6C97-C150-5640-9F1D-E7D62749746C}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
